--- a/Network/2.xlsx
+++ b/Network/2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó.GEP.000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\final-project-2025-26\Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42608C9E-65D2-4C07-8766-66AB0D801C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCDD1B-33D8-4833-9006-25E816738C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
     <sheet name="Fix IPk" sheetId="2" r:id="rId2"/>
+    <sheet name="OceanData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>Név</t>
   </si>
@@ -176,13 +177,118 @@
   </si>
   <si>
     <t>192.168.20.1 HSRP</t>
+  </si>
+  <si>
+    <t>DC01</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Szerep</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>192.168.20.4</t>
+  </si>
+  <si>
+    <t>Primary AD, DNS</t>
+  </si>
+  <si>
+    <t>DC02</t>
+  </si>
+  <si>
+    <t>192.168.20.5</t>
+  </si>
+  <si>
+    <t>Backup AD, DNS</t>
+  </si>
+  <si>
+    <t>FS01</t>
+  </si>
+  <si>
+    <t>Fileshare</t>
+  </si>
+  <si>
+    <t>FS02</t>
+  </si>
+  <si>
+    <t>SQL01</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>192.168.20.1</t>
+  </si>
+  <si>
+    <t>192.168.20.2</t>
+  </si>
+  <si>
+    <t>192.168.20.3</t>
+  </si>
+  <si>
+    <t>192.168.20.6</t>
+  </si>
+  <si>
+    <t>192.168.20.7</t>
+  </si>
+  <si>
+    <t>192.168.20.8</t>
+  </si>
+  <si>
+    <t>192.168.20.9</t>
+  </si>
+  <si>
+    <t>192.168.20.10</t>
+  </si>
+  <si>
+    <t>192.168.20.11</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>HSRP virtual IP</t>
+  </si>
+  <si>
+    <t>MSSQL listener IP</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>SQL02</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>WEB01</t>
+  </si>
+  <si>
+    <t>BU01</t>
+  </si>
+  <si>
+    <t>192.168.20.20</t>
+  </si>
+  <si>
+    <t>192.168.20.30</t>
+  </si>
+  <si>
+    <t>Fileshare listener IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +301,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -300,10 +413,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -327,9 +442,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -367,7 +482,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -473,7 +588,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -615,7 +730,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E4ACA-B49F-4DB2-BCFB-280F26713B9B}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +766,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -668,7 +783,7 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -683,7 +798,7 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -698,7 +813,7 @@
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -713,7 +828,7 @@
       <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -728,7 +843,7 @@
       <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -743,7 +858,7 @@
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -756,33 +871,33 @@
         <v>37</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -797,16 +912,16 @@
       <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,7 +934,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,4 +1003,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D6D1D5-74AF-4AB6-A0A1-6D17E92BA017}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Network/2.xlsx
+++ b/Network/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\final-project-2025-26\Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utli Barnabas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCDD1B-33D8-4833-9006-25E816738C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667D1E6-F370-44F8-B381-C1E01C6E435F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -22,21 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Név</t>
   </si>
@@ -212,9 +203,6 @@
     <t>Fileshare</t>
   </si>
   <si>
-    <t>FS02</t>
-  </si>
-  <si>
     <t>SQL01</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>192.168.20.10</t>
   </si>
   <si>
-    <t>192.168.20.11</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -278,10 +263,10 @@
     <t>192.168.20.20</t>
   </si>
   <si>
-    <t>192.168.20.30</t>
-  </si>
-  <si>
-    <t>Fileshare listener IP</t>
+    <t>Gateway R</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -442,9 +427,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -482,7 +467,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -588,7 +573,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -730,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1007,10 +992,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D6D1D5-74AF-4AB6-A0A1-6D17E92BA017}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,32 +1020,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
+      <c r="D4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1096,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -1113,94 +1110,66 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
       <c r="D12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Network/2.xlsx
+++ b/Network/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Utli Barnabas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\final-project-2025-26\Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667D1E6-F370-44F8-B381-C1E01C6E435F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B7521-2BCD-482C-AF02-B005AB07C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>Név</t>
   </si>
@@ -267,6 +267,21 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>MSSQL Heartbeat</t>
+  </si>
+  <si>
+    <t>40.40.40.0</t>
+  </si>
+  <si>
+    <t>Megjegyzés</t>
+  </si>
+  <si>
+    <t>40.40.40.1 heartbeat</t>
+  </si>
+  <si>
+    <t>40.40.40.2 heartbeat</t>
   </si>
 </sst>
 </file>
@@ -382,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -402,6 +417,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,9 +454,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -467,7 +494,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -573,7 +600,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -715,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96E4ACA-B49F-4DB2-BCFB-280F26713B9B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +882,9 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,7 +897,9 @@
       <c r="C9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,7 +912,9 @@
       <c r="C10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -901,12 +934,27 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,19 +1040,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D6D1D5-74AF-4AB6-A0A1-6D17E92BA017}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1017,8 +1066,11 @@
       <c r="D1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
@@ -1032,7 +1084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1046,7 +1098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1060,7 +1112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1074,7 +1126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1088,7 +1140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1102,7 +1154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1115,8 +1167,11 @@
       <c r="D8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1129,8 +1184,11 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1144,7 +1202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -1158,7 +1216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>68</v>
       </c>

--- a/Network/2.xlsx
+++ b/Network/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\final-project-2025-26\Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B7521-2BCD-482C-AF02-B005AB07C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFEF508-C361-4DF5-B085-EC5992F80579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="27540" windowHeight="10080" activeTab="2" xr2:uid="{6F35F872-ABCC-42C2-B031-C1DE53122CDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
   <si>
     <t>Név</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>40.40.40.2 heartbeat</t>
+  </si>
+  <si>
+    <t>192.168.20.19</t>
+  </si>
+  <si>
+    <t>MSSQL Cluster IP</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D6D1D5-74AF-4AB6-A0A1-6D17E92BA017}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,9 +1230,23 @@
         <v>68</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
     </row>
